--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/12_Balıkesir_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/12_Balıkesir_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CCDD5F-492E-405C-973F-517160B5059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF90CA4-491E-48C2-B928-BF0836920FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{ED4CEA8A-048B-4500-B243-A9A3A511004A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{3F8C3F85-B72C-4A09-9FE2-926FAEDFEC06}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="104" r:id="rId1"/>
@@ -977,13 +977,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3FE9A4CE-33ED-4B3F-8C62-C9D3BD21A8C1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E75F6F7F-0270-49CD-B2E8-802682BA4908}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{680C0726-F4FE-4D58-8E38-60FAB02DAA68}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{79EB8C46-E695-42EB-9CC3-C82AC698BBE5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B0A3FDB9-6A8C-4963-AC0D-8D7032D108AF}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FAA78571-C09D-4664-8074-BEA837B78E1B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{74369147-7438-4459-AAEC-B12374352EB3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{26D3A3BC-2F33-43E7-B39C-DF1C0CC29DEC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{717B1859-164A-488C-ADB0-45D8383EA131}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C7B7721D-1F41-457F-AF02-1BD23E7FFD7B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{01DA7579-E44F-4938-9B57-BE688CF09D70}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2340244C-EB19-424B-A18B-36BA33FC3DB4}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C9D24442-F117-44B0-81C6-7B3256A57F19}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BFE8950A-5D41-471A-9250-C071782BAA9D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1B0E50-8EC7-4CF5-9A0E-BB5A41D08191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3395D6-D0D7-4F16-9555-AA015838F2A6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2646,18 +2646,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFB24E94-4460-478A-8BD8-0FD72F7D8960}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FC38A26-B956-4903-B4F9-B6C8603461AF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C20C6446-54B7-4DF1-A37C-B2B3A30C45DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4211195-FF87-4C98-9030-4EC6C5D3DBB4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBD9ED5B-B679-4976-944F-BC02463AAC91}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FD9D210E-9858-4F77-BBA1-CC0FCEF2E360}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C630FAF7-DEBE-4AB1-BE7B-91A7EBA9C9A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAB997A7-8B8F-443C-9F1A-CD4F2453B4C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BFC88F1-D128-488E-A757-0BA6F42D8FEE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DF469EE4-07C6-42F6-A819-9452EE6097F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDD1F2C0-8CCB-42FF-B5E8-2ED3E7C68799}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39BA42F9-8109-465F-9304-9DA9C8749D2B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60D2DF7C-0645-4253-B98F-41E37F4D3ABA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B9D9D90-5492-4452-825D-1F7F43F89AE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC10A115-CF59-45FE-A3F9-5AE1BC373DE5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21A1448A-59FD-4429-845B-B76ABF707FF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E188047D-2CDB-4249-9400-4D586CD4BE12}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CEAE3136-8C8C-4CB1-8584-FA9ACBA8E660}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4262BDA3-1C8B-4EC4-AF57-3EB979724448}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FE5E2FC-B679-4FAD-8EB4-06A9063436A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6F73330-F64F-4D51-B634-F45830A279E7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5EF83E5D-65BB-4E50-AF09-600C835561C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA5D6540-897F-416D-BE67-DA85ADE3AA1E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E27B79E-4494-40AE-85F3-FA13EA3A362C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2670,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848ACC0F-A1CD-451A-9444-A7A437E9EB6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED358871-D1EC-4087-978D-566208341214}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3944,18 +3944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C1B1C56-0926-4957-9E58-6771DD988BEA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{652295C5-7148-45AE-9975-EF9EF83759D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A0C61A3-575D-4E8B-85A7-0FCEFCD4BAA4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10111DC2-7D11-4B31-A8A6-63EDE2946E1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D1DB8DF-D8CE-484D-B327-5D13C20B131A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC76F0EA-EF87-4022-9752-5FB49A9D7CCB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E30BEAC1-CDFB-4352-8A26-0003BE6E8B66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44474F41-C1D6-4975-8F24-99A1726107C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F572C512-0581-4E40-B942-E99C66F0FCE3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{645A1A1D-E081-43DB-B308-2A14E724A71A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED950B70-6559-48A9-9615-F31E7764458B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3372261-79B6-4AAB-B758-58D0C985AFF5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BC49B92-4DF0-4AD3-8215-7804BE42A1B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26A650FD-88E2-4D44-BEEC-4C50EE2DA189}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7CC67088-AD68-4816-8A24-CBA91EA37DF7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97885C0A-C5AB-415D-9D77-06D035C7A7C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{671818D9-13E3-4070-972E-89DA17E766E8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26FBD4B4-C416-4EF1-96B9-869A39EC332A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{282E7F65-781C-4BE9-B017-35415E7583EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9196C45E-E23A-421D-B2B0-A8EBDDDD36F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AAFB5B7-7C69-478A-9504-8FE842A3419D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B5BAF592-559D-41CF-B793-EC496DAA5748}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28802F2E-4539-40D6-8A45-4351AA26FBD9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29433ECE-786C-4564-968D-8FE0FE901C0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3968,7 +3968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14FCAC-EB1C-476B-B2BD-9DCC9CA7DF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7CE390-676F-4357-9E37-F0FB9DCEEB6C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5242,18 +5242,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7BDF828-5C0A-4FA2-83EC-B29AF6BCDD0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31B2EC91-D1BB-42E9-AE76-399BFCCDB88C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32A9570F-EA78-4700-8825-34AD27CB9019}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF79E069-7EFE-4206-A7C8-7E551805EBF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E03BF39C-4235-4A1F-B9DF-1408BEB63EB2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{960E709D-3875-4D20-B798-91CDBA069394}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2188C2A7-D9C5-443E-AA4A-78F4F3F0F1B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0DF1599-5FBF-4DD4-B12E-F96DCD787FF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E09325C6-F0AB-47C0-8B03-771C684A702A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{184EF83E-E863-4388-8F2C-AF54C5E1A11C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9234A4CD-9591-4424-B98D-13E51408904A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC5508EA-DB67-45FF-B7E6-20AAD81E8161}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C909268-925A-4806-83D7-194B60A30255}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE150E70-B46B-46D8-A97D-F60EB1C3981D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87E5CC97-F1FE-4B6A-A8D9-3CE05C785CAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62D6D76F-605A-415C-BC91-5CD496CD3E41}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3153E7DD-8C38-4E93-ABDE-F075622C9AE8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{174F8193-5824-4308-B018-61246A0789CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76C42B73-39D5-4FF7-BE0C-C06977F4C602}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB20A030-4C82-4626-9CA2-88C1F8235134}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B1215D4-3D05-4F8F-8B63-FCB244C7EA6E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8005741D-92B6-405B-B2A9-502BFEC5DEF1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D17AF6E-4E29-4E85-8B4F-0F6D3D6D1326}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51A2DE3D-A0A6-4902-A4E4-90911AFD2BAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5266,7 +5266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7FD706-CBEB-4D03-8C46-A07F0FB7FC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4DA39D-1091-49CF-BC03-E72C33C8D89B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6534,18 +6534,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C1E33E5-0C26-445E-87B7-EE603EFECC2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C76A4DF0-2ACD-4380-8C3B-C56AE9191B97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2C5DCA8-342C-47EA-B3DC-F69885B86058}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{203A2B9D-EB20-45E9-A856-9DB69E33F369}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8754711-9216-45DC-9DB0-1C47ED530392}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFB41396-B596-4580-81CA-2527AA641F20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC229E6D-DB72-45F6-9B94-B16685755DA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B5B0C3C-8707-47D9-AA8B-A6AF53485162}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C16D7B58-603A-4501-A87B-F384B874ED94}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2D6A3BAC-7938-4424-9C87-3D46BDF92401}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F5D469B-FB65-4114-869A-AFBE6309BD33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E92DAD9-E576-44FF-92FD-EFCB2B710E18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A773498-980C-48AA-89CA-1F7D6C2A4FB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F09AD70-A245-4993-925E-DA6A101A96A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7C2F9AF-C499-4354-9FC7-9AE6AC89CB12}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68518590-DC9C-49C3-8441-4929BB0EA959}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C8CFDF9-EA29-4479-8561-00E79DF4356F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D8A3A11D-8060-4940-B167-537A80297E8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69CE9812-8E3E-4BA6-B52A-244F442E67BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65558655-AA33-44D7-AF2F-C365F13E0695}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21DC3D31-A3CD-4991-8FCA-18FF5FEC68BD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CC791713-6389-40C8-A6FA-8F575CCF7DA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05945389-FD86-49DE-9FB8-9FDE72E4D15A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD663CDA-FBC9-4BE0-BAEB-73EAE0A799A6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6558,7 +6558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5109080-77AF-4563-93B4-CDB47234D392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3B1DEC-6EEB-48FD-A18E-97056B5F7EF3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7853,18 +7853,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C0EDCA7-91E5-4670-B913-1123CC3F7AD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AAC91F19-92F3-48CA-94B3-C1EE2E683AE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{417014C4-0284-47E6-B1B4-6518FCC577B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BD54511-FBA8-4AD1-A3BC-67A58398CE5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18884224-DC97-48F3-905F-94C1A7A383F2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C221ABD-FC1B-4CF4-B395-972411D5693A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9449B35A-F247-4DA8-8E33-485EDB036496}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0CA5193-ECC6-4653-9CA1-C57509694374}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E91D524A-DF50-4862-9AC8-5A6C72265463}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B9C08E9C-ADF1-43E6-85CA-1A1E753CA2F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{388597D2-60BF-40F0-9FF4-A568D39D93B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54D6D568-B505-4DC2-8043-A98B610D6FCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF34F049-8C29-421B-986B-089E082A6419}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8E870B1-43D5-4CA0-8935-7B7D33B877A9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A40BF484-4CDF-4542-B8DA-75ED8AC101FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15F5423D-552C-4E84-9663-7C8CB345BF74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82449261-8C38-47CE-B11C-298F2B6124E1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D6179796-3AB9-4C4A-98D0-85386C273F20}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D57C257-1AB2-48FF-B7BC-674C5EF9928D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C936524D-E813-46DA-883D-9509BF116E7F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84F50EBD-FA93-4ED5-B2C7-0961633C8F50}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{746F0332-CAAA-4CDA-A15F-91A756FDFC87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26B7343D-CBFE-472C-83AA-44C5442BBFE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{605484E9-F562-4F85-9E2B-D1EF1A2DBBB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7877,7 +7877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB463E2-0584-42D8-985C-162DECAFFE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F9F5B8-288A-48E4-BBE6-31E527A0327D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9172,18 +9172,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA7A8F43-8DFA-4A9D-9E62-FDA465D1E5BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E84EC2F4-128F-47F8-9830-603B0D154E94}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32D223D6-4588-4797-87D5-D5DF1FEFD6F9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E269FD67-63DD-4836-B15E-C3C5570B6C58}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5CE3C43-D99D-48AF-87BD-18207F2C5B15}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{48CA9405-D8C1-467C-997B-3FCD7221B7EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{862B043E-4CF3-4999-9389-69422B59FBBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DEB1A30-D12D-480B-8F4A-9FC45AC3FD72}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{124A4797-C6F2-44CC-8DBE-6D92210A5F25}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A81AEEB7-9CF9-4E64-9001-B6FCA3293BE0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A551E36-ACDC-44B1-BC79-C043BD2D31BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD72C5A6-8FA5-412A-8A45-C5E6335D2A39}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AED0BEF6-7ABD-46FB-88FD-8EB01F9F6E53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{406787B9-8CF7-488A-8739-2CE487620B15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B1B5EC0-A4DE-482A-96FE-B10B31C84DE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{141E597D-AACB-435E-821D-81BA4E58827E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D23B5B8-BC22-435A-A341-AC6C055AB6EC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2499680-7DFE-44CD-9FFB-40A1BEF4B2AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED10BC05-7DEA-4A5C-92EC-998352AB7C3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07398C0C-7787-48A0-B65F-A23C5926D90F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2641E87-9B53-4D9D-94E4-CB4FFC48DF86}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B7351BFF-4D09-4ACB-AFCB-0B8269A241C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6B2C928-C977-4867-9220-CFDC956D2D3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B16A9B7F-6ED7-467F-ABF3-3FEC38038B93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9196,7 +9196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9CC2CD-D38C-4BCD-AF07-3090BC42BC56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4422B4-11A8-4EB5-8B8F-8564E04BA0F4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10487,18 +10487,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{723B68A9-46E9-41C1-95F5-7A056E898B4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6B48B52-E779-48BB-B8E7-3AFC237BA9AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB8BBCFE-A9F9-4F1C-B192-04F99F193259}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D434DCD9-3A75-4C83-B029-F2EF8B423E95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0450185E-2F36-4364-A035-F840588ECAA4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{29859797-E457-4841-A7E6-971D84E572E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B3D54F6-6F5D-4714-AF0F-F64585062A00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1422EEB-3754-40A5-8990-D8C2EE75C0F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24FB95D9-8B42-423F-8C5E-A218C642F6A5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{28B860BB-9284-48FB-A6B3-96B24B21F55C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE618761-F9BD-48DA-A568-E37C500BAB00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1202DA76-FF04-47A0-818E-51778036739D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8ADF6A3-E872-42F7-8B9B-AB9328815784}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{869D0B0B-1099-4C3B-83DC-C9962F7611D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFB7C2B8-1D7E-4757-A5A7-02728E2E7A47}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{644135A6-A708-48CA-B8E8-376D9EDF641D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCA14593-E953-44FA-B878-928160FD1F86}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDD0830D-01DE-42C0-AF76-622093C96D12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3604B99F-577D-436D-8EED-44F4BE6A77A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39C51494-79CD-4D6F-9CDC-32B73A266383}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA01EEFF-B7DD-48F8-87B7-DCBCD24F2D33}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{712101F8-5B81-487C-A542-0A020CC20B75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A729273-21B5-40CF-93C9-783F6CCC8CE2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D02A37D-B13C-410A-B41A-980F5571DB3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10511,7 +10511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C749F-B182-4FB7-8EA2-0F9EE9F9BBFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C3D6CD-FBF4-4C52-8373-CC1E2591B9F7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11798,18 +11798,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED68826B-FCB7-483D-9918-1C97799CB5D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9260F860-60C4-4A1B-BB51-C6965A6068B4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21DFC042-3461-4797-A097-A5A70C679690}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC5CB87F-4C19-48F0-8CE5-7CEE32ACB9C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3DB3E74-EED1-46E3-8CCD-2ED37D510E6A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{924A634A-C0AE-436B-88D7-BECF5B160976}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{843E1C25-9615-4ACF-83C3-6C6A5FEA4629}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B81E785-D2F5-474A-82F6-83DDB1B46B6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA6FE3F2-1207-4923-881D-5DA1C8E26E76}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{80C9BC93-8ACB-47FF-96F2-D26E2BFC4914}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E8A7E3D-B420-4F31-B0D9-A9BD75BF91AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{638F70E0-C4A2-42FF-9420-8D0C38F9206C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FE5483E-38BE-40E1-AF90-37A8E73A07FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{352D3DFC-7843-4BA2-AE1C-158F68812FF5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26555776-D227-48FD-85EE-EDC0FAC2C90C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E949EA0-9FDD-4FFE-83AF-158DE9D84524}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FB58714-6E0B-4531-87FE-F7C58253BC36}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{32364A67-51F1-47B8-875B-A908E687C6EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E813FC1A-0C56-4A84-B679-8EB3342A9C04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53B9E56A-EFCC-4C1F-8E50-F6EBBC01ECF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65A42D19-7261-471E-A567-7DBD3FCDB2B3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{42DE4FC1-76A5-4F98-8549-FA7B2E93FA24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{203FDFD8-3508-4D21-90ED-C540D4FB0656}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50CBE03E-C7DB-4CB0-B3CD-C30F4FFF7629}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11822,7 +11822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3959A31-0D88-421B-81F2-A1CF1054FBBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6559A08-3990-4951-BE1D-CBFB0B1B1C0C}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13102,18 +13102,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD9F36BE-507A-47F1-84D2-6201C9B2D773}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15570A98-4314-4CFE-878A-CFF17329D305}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A18A9F41-3DC5-4D2F-88F6-24BD44E9E4BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F806544-07B8-4DF2-9937-17B78E98E6A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16BB5D6E-13D7-48B7-9F4D-E50A7BADBF9E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{778CBE4B-BE5C-459A-A964-CF07BD832761}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4C6B78A-F524-417F-BECF-5240DE9D816C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8B5D52B-F3DC-4C35-9637-DAAEF2BBCEEB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61302879-9B41-4EFB-989C-5B5B66F3D81D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{382433B3-EF7A-40EF-8111-96C6A8964A0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9214E7F5-9D7D-483C-9E98-32680359AEAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B99BAD4B-7F0C-4B3E-8FCE-47B5EC59BD3C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3324F1E3-544E-4A12-AE6D-27C0C13A78F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8272C2D9-7BDE-46E2-82A5-967813A4D836}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8CECE734-7980-43A4-8934-CFB890CE32B8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13A83CEE-46CB-4447-9830-BD3DA9CAD07E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C41FFF6-8719-44A5-82DF-57F0DFF5EFA8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{53594223-CD02-4209-96C7-F0E762E8816E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92409BA5-651E-40EE-8D5A-DEF2C0073D00}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{084AB055-4EAD-4D90-87AD-D0F219797EB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{661A738E-64AF-4050-8A64-8EAD3E1C2DF0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{449618F4-E960-4069-8351-2331868D8C01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6384B9D9-D3DA-4DAF-B167-F906B1E34104}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8ABAE0EE-19A8-47A4-B767-0D8C207490E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13126,7 +13126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB75B2D-700B-4120-A782-6274C08B9210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05576637-8B5D-49DC-92B4-B5BB2571BAEA}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14400,18 +14400,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{173CA48D-5E1F-4699-B3B6-3933A4B566DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03631686-9D3E-45BA-AB89-4FF72BD27B12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D9A1D4D-CA0C-4D3D-88AB-4CA65CB603B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A41AD617-FDA7-4201-B296-E14E4246BD75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6D71756-F601-4202-8BE1-524B626A414B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D1A6143-6FFA-4F53-B59E-9F79D5306BD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C59DA13-8C8D-46C4-A525-E5F7AC90B715}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCDEE2C9-8A81-4495-AF25-C9099C969306}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{557E182B-5AC9-4647-A8B2-6594E83326E2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D0A8EAFA-2100-49A6-BCF2-3C166FEF4D53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D75B066B-82B6-4AAD-9547-8E0F50B04BD0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04980C4E-203B-4B8B-9E94-A8DF43713D81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F6B09A1-BB6B-4BDC-9ABB-7CEDBDEF2996}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60AD7818-C07E-4DA4-9146-0DF7C7A9D6C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8C6DCF0-DAF1-4A28-AE05-2363E505C942}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58B98B45-7913-4555-B0E3-20AB461BDED0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6923FA21-98C3-4515-9B59-7390D70F7221}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0950769F-518F-431A-8D21-06AB93600AB8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A50A5AD-9B9C-4AE3-A8DE-4351DF0C8DBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FC73806-956C-44ED-A3AF-1FBA6EDB1ED4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07D504A3-4510-4897-9591-C8A3FD54EAFE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{42C0DCE1-EFDE-40AD-9E14-98C6593EEA33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D10F0D7-3832-4956-B17C-0A5A1D2B0D44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F95F8A8D-B2C5-499D-AF6F-76658E0D1933}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14424,7 +14424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F9D05-7D26-4D41-8E5A-FB382196C799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92789B42-191F-43CA-85AB-B22A837B4372}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15698,18 +15698,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{151E8A3E-D053-4A82-A5D0-D8F4985768CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68EB38A9-26E5-4FC7-963C-5E2AC8298AED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F79A6520-725B-4EAC-9A73-5D0D35EEBE63}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC2BFA52-D5BB-4D01-B932-0BA32BE90EF0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEC8B7BC-A9A4-4406-8055-7BB94B3BF0D5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D18A9D59-BAF3-4D31-B86D-9F15CB2BFF5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D50883DF-B826-42F5-9E66-FFE5EDA8B0F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05EADFB1-03E3-47F4-82AC-E9058EFF81D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3247C5D4-6196-4B2C-AAB4-FBA71D46A8E0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0FD2066E-D5C7-4EAF-9E04-D98DA6F0A52E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C343C200-8E21-4D11-B6C7-41917D168755}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94418D24-38FA-469B-B71D-4BA46980EEBC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E502DC74-BC1C-4FCA-8C85-731E41D70F09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{091185E0-BED3-49AC-8341-44D5E869E6C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB986F4C-B102-4F54-AA42-FE7F252977D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88861A96-346F-4242-A14A-B74B1C790E9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D76F802-28A9-46E8-A707-06D6B9B384E3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D164F8E-9B78-4869-A7D0-340C2D0CBD4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B421994C-C6B5-4E5B-A8AC-CF84A896C911}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50BB4D24-8957-4259-964F-39B7415A34F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{072A7A92-24F4-4E72-AC99-3A92CF9B8DE8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{64E99501-E072-4198-A1FF-0622193582FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C9CCFFC-C612-45F8-832E-823A537DC897}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A03C23DD-788F-4CFD-9AAB-871D475C9478}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15722,7 +15722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F5859C-7098-4EDC-9FED-4E84F6631212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C3414C-FB3C-4D55-A5A4-397223275C0D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16996,18 +16996,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C2D924C-BC72-45F7-AE03-86C3D1C88664}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2F82966-240B-4886-AA84-E178D8B07C7F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B17D7CA2-8DC5-4962-B20D-2E5CA40A40D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E167BF55-949D-4283-AD26-857709A6356C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF282F99-9F68-4718-AAA0-27536EBFE707}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B2100E9A-DC19-4432-83FC-D32F9D642C2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0941764-D463-480C-903A-77E366BFEEC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F1FF9DD-26F2-439D-9917-B0D817040172}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FE97380-BA1D-4F34-864D-A184416CFB5B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{38029A04-8BD1-41E0-A3BF-9D17DF0AE699}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D743614-1363-4E9F-84B5-0F66806A9AB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC60F6E0-46A4-40CD-8CD9-FCCFD3E683DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{651E243B-42A9-4260-9E01-5B0CCDF00BCA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDFB2142-AD53-49B3-ABBC-EE36B467E644}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E63D0740-F4EF-4633-BF87-A1D48198355A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D893F14-42DF-4A04-8583-4F580B5B5084}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69B7F603-02EE-46C7-92A0-0CCD152F0BBD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F18E6292-5611-40E4-A768-FED45B7C2568}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4935B29A-EFE7-40A5-8604-802A66AEA23F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AEF7368-2635-40F4-A3FD-1DDAD6B674D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3078533-416F-4C97-ABAA-FAF0C6CC008D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{42A9996F-5A8E-49CE-A402-2BC99BCD98E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4E16569-30D5-44DE-96C9-5D60F1F45C10}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB5EE2CF-01C0-4AB2-92B0-E2F550E18F39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
